--- a/example/kerber_landnetz_fl2/scenarios/pv_storage.xlsx
+++ b/example/kerber_landnetz_fl2/scenarios/pv_storage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chujiahe/Desktop/propens-pandapower/example/kerber_landnetz_fl2/scenarios/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A4CC6B8-9B73-7F41-B233-BC4109E96B45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B809BD5-4BC4-4A49-A259-B26CB66C37B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1620" yWindow="640" windowWidth="28040" windowHeight="17420" activeTab="8" xr2:uid="{2084B393-6D21-FD4B-B70D-EA7120C1C02C}"/>
+    <workbookView xWindow="10560" yWindow="640" windowWidth="28040" windowHeight="17420" activeTab="7" xr2:uid="{2084B393-6D21-FD4B-B70D-EA7120C1C02C}"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="16" r:id="rId1"/>
@@ -20,14 +20,15 @@
     <sheet name="gen" sheetId="8" r:id="rId5"/>
     <sheet name="sgen" sheetId="3" r:id="rId6"/>
     <sheet name="asymmetric_sgen" sheetId="6" r:id="rId7"/>
-    <sheet name="ext_grid" sheetId="9" r:id="rId8"/>
-    <sheet name="storage" sheetId="7" r:id="rId9"/>
-    <sheet name="trafo" sheetId="10" r:id="rId10"/>
-    <sheet name="trafo3w" sheetId="11" r:id="rId11"/>
-    <sheet name="ward" sheetId="12" r:id="rId12"/>
-    <sheet name="xward" sheetId="13" r:id="rId13"/>
-    <sheet name="trafo_std_types" sheetId="14" r:id="rId14"/>
-    <sheet name="trafo3w_std_types" sheetId="15" r:id="rId15"/>
+    <sheet name="fuel" sheetId="18" r:id="rId8"/>
+    <sheet name="ext_grid" sheetId="9" r:id="rId9"/>
+    <sheet name="storage" sheetId="7" r:id="rId10"/>
+    <sheet name="trafo" sheetId="10" r:id="rId11"/>
+    <sheet name="trafo3w" sheetId="11" r:id="rId12"/>
+    <sheet name="ward" sheetId="12" r:id="rId13"/>
+    <sheet name="xward" sheetId="13" r:id="rId14"/>
+    <sheet name="trafo_std_types" sheetId="14" r:id="rId15"/>
+    <sheet name="trafo3w_std_types" sheetId="15" r:id="rId16"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -50,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="300" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="136">
   <si>
     <t>wye</t>
   </si>
@@ -443,13 +444,28 @@
   </si>
   <si>
     <t>household8</t>
+  </si>
+  <si>
+    <t>gen_type</t>
+  </si>
+  <si>
+    <t>index</t>
+  </si>
+  <si>
+    <t>fuel</t>
+  </si>
+  <si>
+    <t>sgen</t>
+  </si>
+  <si>
+    <t>solar</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -467,6 +483,14 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -509,12 +533,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -860,6 +885,313 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{699321C4-99D5-544B-8F83-A7A6C219F50E}">
+  <dimension ref="A1:L9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="8.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="B1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>0</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C2" s="1">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E2" s="1">
+        <v>0</v>
+      </c>
+      <c r="H2" s="1">
+        <v>0</v>
+      </c>
+      <c r="I2" s="1">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="J2" s="1">
+        <v>1</v>
+      </c>
+      <c r="K2" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3" s="1">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E3" s="1">
+        <v>0</v>
+      </c>
+      <c r="H3" s="1">
+        <v>0</v>
+      </c>
+      <c r="I3" s="1">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="J3" s="1">
+        <v>1</v>
+      </c>
+      <c r="K3" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="1">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E4" s="1">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1">
+        <v>0</v>
+      </c>
+      <c r="I4" s="1">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="J4" s="1">
+        <v>1</v>
+      </c>
+      <c r="K4" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C5" s="1">
+        <v>5</v>
+      </c>
+      <c r="D5" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E5" s="1">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1">
+        <v>0</v>
+      </c>
+      <c r="I5" s="1">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="J5" s="1">
+        <v>1</v>
+      </c>
+      <c r="K5" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L5" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>4</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="1">
+        <v>6</v>
+      </c>
+      <c r="D6" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E6" s="1">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1">
+        <v>0</v>
+      </c>
+      <c r="I6" s="1">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="J6" s="1">
+        <v>1</v>
+      </c>
+      <c r="K6" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L6" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="1">
+        <v>7</v>
+      </c>
+      <c r="D7" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E7" s="1">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1">
+        <v>0</v>
+      </c>
+      <c r="I7" s="1">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="J7" s="1">
+        <v>1</v>
+      </c>
+      <c r="K7" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L7" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>6</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="1">
+        <v>8</v>
+      </c>
+      <c r="D8" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E8" s="1">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1">
+        <v>0</v>
+      </c>
+      <c r="I8" s="1">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="J8" s="1">
+        <v>1</v>
+      </c>
+      <c r="K8" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L8" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>7</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="1">
+        <v>9</v>
+      </c>
+      <c r="D9" s="1">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E9" s="1">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1">
+        <v>0</v>
+      </c>
+      <c r="I9" s="1">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="J9" s="1">
+        <v>1</v>
+      </c>
+      <c r="K9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="L9" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF49ED3A-8BCC-F043-98DC-39A8D142EE40}">
   <dimension ref="A1:X2"/>
   <sheetViews>
@@ -999,7 +1331,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03698C73-FE5E-9349-9185-822495C75A6F}">
   <dimension ref="A1:AE2"/>
   <sheetViews>
@@ -1112,7 +1444,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B937B77-D550-5442-9E19-D64BB1FAA85E}">
   <dimension ref="A1:H2"/>
   <sheetViews>
@@ -1156,7 +1488,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C8234EC2-F731-1645-87A1-3289074C0200}">
   <dimension ref="A1:L2"/>
   <sheetViews>
@@ -1212,7 +1544,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6E1DAA20-9FE8-A746-9BA7-813A8662382E}">
   <dimension ref="A1:Q17"/>
   <sheetViews>
@@ -2084,7 +2416,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31D9EE88-502B-5341-A8AD-D80CC2A5901D}">
   <dimension ref="A1:W3"/>
   <sheetViews>
@@ -3144,6 +3476,144 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2C19DAD-D0D2-5349-A286-609517B45B7C}">
+  <dimension ref="A1:D9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K27" sqref="K27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:4" s="3" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="B1" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>134</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>134</v>
+      </c>
+      <c r="C5">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>134</v>
+      </c>
+      <c r="C7">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>134</v>
+      </c>
+      <c r="C8">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>134</v>
+      </c>
+      <c r="C9">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>135</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{446F108F-AC6A-8448-99B0-5E515C432FDC}">
   <dimension ref="A1:G2"/>
   <sheetViews>
@@ -3197,311 +3667,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{699321C4-99D5-544B-8F83-A7A6C219F50E}">
-  <dimension ref="A1:L9"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="16384" width="8.83203125" style="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="B1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
-        <v>0</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C2" s="1">
-        <v>2</v>
-      </c>
-      <c r="D2" s="1">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="E2" s="1">
-        <v>0</v>
-      </c>
-      <c r="H2" s="1">
-        <v>0</v>
-      </c>
-      <c r="I2" s="1">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="J2" s="1">
-        <v>1</v>
-      </c>
-      <c r="K2" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C3" s="1">
-        <v>3</v>
-      </c>
-      <c r="D3" s="1">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="E3" s="1">
-        <v>0</v>
-      </c>
-      <c r="H3" s="1">
-        <v>0</v>
-      </c>
-      <c r="I3" s="1">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="J3" s="1">
-        <v>1</v>
-      </c>
-      <c r="K3" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="1">
-        <v>4</v>
-      </c>
-      <c r="D4" s="1">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="E4" s="1">
-        <v>0</v>
-      </c>
-      <c r="H4" s="1">
-        <v>0</v>
-      </c>
-      <c r="I4" s="1">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="J4" s="1">
-        <v>1</v>
-      </c>
-      <c r="K4" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
-        <v>3</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C5" s="1">
-        <v>5</v>
-      </c>
-      <c r="D5" s="1">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="E5" s="1">
-        <v>0</v>
-      </c>
-      <c r="H5" s="1">
-        <v>0</v>
-      </c>
-      <c r="I5" s="1">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="J5" s="1">
-        <v>1</v>
-      </c>
-      <c r="K5" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <v>4</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C6" s="1">
-        <v>6</v>
-      </c>
-      <c r="D6" s="1">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="E6" s="1">
-        <v>0</v>
-      </c>
-      <c r="H6" s="1">
-        <v>0</v>
-      </c>
-      <c r="I6" s="1">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="J6" s="1">
-        <v>1</v>
-      </c>
-      <c r="K6" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="L6" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
-        <v>5</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C7" s="1">
-        <v>7</v>
-      </c>
-      <c r="D7" s="1">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="E7" s="1">
-        <v>0</v>
-      </c>
-      <c r="H7" s="1">
-        <v>0</v>
-      </c>
-      <c r="I7" s="1">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="J7" s="1">
-        <v>1</v>
-      </c>
-      <c r="K7" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="L7" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
-        <v>6</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C8" s="1">
-        <v>8</v>
-      </c>
-      <c r="D8" s="1">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="E8" s="1">
-        <v>0</v>
-      </c>
-      <c r="H8" s="1">
-        <v>0</v>
-      </c>
-      <c r="I8" s="1">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="J8" s="1">
-        <v>1</v>
-      </c>
-      <c r="K8" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="L8" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
-        <v>7</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C9" s="1">
-        <v>9</v>
-      </c>
-      <c r="D9" s="1">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="E9" s="1">
-        <v>0</v>
-      </c>
-      <c r="H9" s="1">
-        <v>0</v>
-      </c>
-      <c r="I9" s="1">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="J9" s="1">
-        <v>1</v>
-      </c>
-      <c r="K9" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="L9" s="1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/example/kerber_landnetz_fl2/scenarios/pv_storage.xlsx
+++ b/example/kerber_landnetz_fl2/scenarios/pv_storage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chujiahe/Desktop/propens-pandapower/example/kerber_landnetz_fl2/scenarios/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B809BD5-4BC4-4A49-A259-B26CB66C37B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F982E65-D56D-554C-8C0F-B01739D729F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10560" yWindow="640" windowWidth="28040" windowHeight="17420" activeTab="7" xr2:uid="{2084B393-6D21-FD4B-B70D-EA7120C1C02C}"/>
+    <workbookView xWindow="2200" yWindow="640" windowWidth="28040" windowHeight="17420" xr2:uid="{2084B393-6D21-FD4B-B70D-EA7120C1C02C}"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="16" r:id="rId1"/>
@@ -29,6 +29,8 @@
     <sheet name="xward" sheetId="13" r:id="rId14"/>
     <sheet name="trafo_std_types" sheetId="14" r:id="rId15"/>
     <sheet name="trafo3w_std_types" sheetId="15" r:id="rId16"/>
+    <sheet name="pwl_cost" sheetId="19" r:id="rId17"/>
+    <sheet name="poly_cost" sheetId="20" r:id="rId18"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -51,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="136">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="147">
   <si>
     <t>wye</t>
   </si>
@@ -459,6 +461,39 @@
   </si>
   <si>
     <t>solar</t>
+  </si>
+  <si>
+    <t>power_type</t>
+  </si>
+  <si>
+    <t>element</t>
+  </si>
+  <si>
+    <t>et</t>
+  </si>
+  <si>
+    <t>points</t>
+  </si>
+  <si>
+    <t>cp0_eur</t>
+  </si>
+  <si>
+    <t>cp1_eur_per_mw</t>
+  </si>
+  <si>
+    <t>cp2_eur_per_mw2</t>
+  </si>
+  <si>
+    <t>cq0_eur</t>
+  </si>
+  <si>
+    <t>cq1_eur_per_mvar</t>
+  </si>
+  <si>
+    <t>cq2_eur_per_mvar2</t>
+  </si>
+  <si>
+    <t>use_opf</t>
   </si>
 </sst>
 </file>
@@ -559,7 +594,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -847,7 +882,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -855,10 +890,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{800EF47C-ADD7-984D-8831-B2BC1EF8921F}">
-  <dimension ref="A1:B2"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -866,16 +901,22 @@
     <col min="1" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>122</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="C1" s="1" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="b">
         <v>0</v>
       </c>
     </row>
@@ -2636,6 +2677,88 @@
       <c r="W3" s="1">
         <v>1.2</v>
       </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF21BB36-86A8-AB45-B6CF-92EEFEBCF330}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N21" sqref="N21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="8.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B1" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FD6BF575-65DD-464C-8630-F6799233F19C}">
+  <dimension ref="A1:I2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="16384" width="8.83203125" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="B1" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>141</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A2" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3479,7 +3602,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2C19DAD-D0D2-5349-A286-609517B45B7C}">
   <dimension ref="A1:D9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K27" sqref="K27"/>
     </sheetView>
   </sheetViews>

--- a/example/kerber_landnetz_fl2/scenarios/pv_storage.xlsx
+++ b/example/kerber_landnetz_fl2/scenarios/pv_storage.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chujiahe/Desktop/propens-pandapower/example/kerber_landnetz_fl2/scenarios/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F982E65-D56D-554C-8C0F-B01739D729F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7C948D2-EE21-0F47-BB18-DB5EC93D5431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2200" yWindow="640" windowWidth="28040" windowHeight="17420" xr2:uid="{2084B393-6D21-FD4B-B70D-EA7120C1C02C}"/>
   </bookViews>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="148">
   <si>
     <t>wye</t>
   </si>
@@ -494,6 +494,9 @@
   </si>
   <si>
     <t>use_opf</t>
+  </si>
+  <si>
+    <t>use_dc</t>
   </si>
 </sst>
 </file>
@@ -890,18 +893,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{800EF47C-ADD7-984D-8831-B2BC1EF8921F}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="16384" width="10.83203125" style="1"/>
+    <col min="1" max="3" width="10.83203125" style="1"/>
+    <col min="5" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>122</v>
       </c>
@@ -911,12 +915,18 @@
       <c r="C1" s="1" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="b">
         <v>0</v>
       </c>
       <c r="C2" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="D2" t="b">
         <v>0</v>
       </c>
     </row>

--- a/example/kerber_landnetz_fl2/scenarios/pv_storage.xlsx
+++ b/example/kerber_landnetz_fl2/scenarios/pv_storage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chujiahe/Desktop/propens-pandapower/example/kerber_landnetz_fl2/scenarios/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7C948D2-EE21-0F47-BB18-DB5EC93D5431}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{661B66D5-E09C-1841-B51E-16ED427769B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2200" yWindow="640" windowWidth="28040" windowHeight="17420" xr2:uid="{2084B393-6D21-FD4B-B70D-EA7120C1C02C}"/>
+    <workbookView xWindow="12320" yWindow="1660" windowWidth="28040" windowHeight="17420" activeTab="1" xr2:uid="{2084B393-6D21-FD4B-B70D-EA7120C1C02C}"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="16" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="149">
   <si>
     <t>wye</t>
   </si>
@@ -497,6 +497,9 @@
   </si>
   <si>
     <t>use_dc</t>
+  </si>
+  <si>
+    <t>controllable</t>
   </si>
 </sst>
 </file>
@@ -597,7 +600,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2013 - 2022">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -885,7 +888,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -895,7 +898,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{800EF47C-ADD7-984D-8831-B2BC1EF8921F}">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
@@ -2777,10 +2780,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04A18980-C5F5-904C-A09F-C403C009A87F}">
-  <dimension ref="A1:K9"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2790,7 +2793,7 @@
     <col min="3" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
         <v>10</v>
       </c>
@@ -2821,8 +2824,11 @@
       <c r="K1" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="L1" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -2853,8 +2859,11 @@
       <c r="K2" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="L2" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -2885,8 +2894,11 @@
       <c r="K3" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="L3" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -2917,8 +2929,11 @@
       <c r="K4" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="L4" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -2949,8 +2964,11 @@
       <c r="K5" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="L5" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -2981,8 +2999,11 @@
       <c r="K6" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="L6" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -3013,8 +3034,11 @@
       <c r="K7" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="L7" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -3045,8 +3069,11 @@
       <c r="K8" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" ht="16" x14ac:dyDescent="0.2">
+      <c r="L8" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -3076,6 +3103,9 @@
       </c>
       <c r="K9" s="1" t="s">
         <v>0</v>
+      </c>
+      <c r="L9" s="1" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -3271,16 +3301,18 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC9B8466-B32E-3A45-A8E8-7E7227ADE1CD}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O12" sqref="O12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="16384" width="8.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B1" s="2" t="s">
         <v>10</v>
       </c>
@@ -3308,8 +3340,11 @@
       <c r="J1" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K1" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -3337,8 +3372,11 @@
       <c r="J2" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K2" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -3366,8 +3404,11 @@
       <c r="J3" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K3" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -3395,8 +3436,11 @@
       <c r="J4" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K4" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -3424,8 +3468,11 @@
       <c r="J5" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K5" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -3453,8 +3500,11 @@
       <c r="J6" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K6" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -3482,8 +3532,11 @@
       <c r="J7" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K7" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -3511,8 +3564,11 @@
       <c r="J8" s="1" t="b">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K8" s="1" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -3538,6 +3594,9 @@
         <v>11</v>
       </c>
       <c r="J9" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="K9" s="1" t="b">
         <v>1</v>
       </c>
     </row>

--- a/example/kerber_landnetz_fl2/scenarios/pv_storage.xlsx
+++ b/example/kerber_landnetz_fl2/scenarios/pv_storage.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chujiahe/Desktop/propens-pandapower/example/kerber_landnetz_fl2/scenarios/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{661B66D5-E09C-1841-B51E-16ED427769B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6475DC1D-199D-AE4E-B9A8-99B24AB60496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12320" yWindow="1660" windowWidth="28040" windowHeight="17420" activeTab="1" xr2:uid="{2084B393-6D21-FD4B-B70D-EA7120C1C02C}"/>
+    <workbookView xWindow="11020" yWindow="640" windowWidth="28040" windowHeight="17420" activeTab="9" xr2:uid="{2084B393-6D21-FD4B-B70D-EA7120C1C02C}"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="16" r:id="rId1"/>
@@ -53,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="150">
   <si>
     <t>wye</t>
   </si>
@@ -500,6 +500,9 @@
   </si>
   <si>
     <t>controllable</t>
+  </si>
+  <si>
+    <t>./example/kerber_landnetz_fl2/timeseries.xlsx</t>
   </si>
 </sst>
 </file>
@@ -899,20 +902,20 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="3" width="10.83203125" style="1"/>
+    <col min="3" max="3" width="10.83203125" style="1"/>
     <col min="5" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" t="s">
         <v>122</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>121</v>
       </c>
       <c r="C1" s="1" t="s">
@@ -923,8 +926,11 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="b">
-        <v>0</v>
+      <c r="A2" t="b">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>149</v>
       </c>
       <c r="C2" s="1" t="b">
         <v>0</v>
@@ -942,7 +948,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{699321C4-99D5-544B-8F83-A7A6C219F50E}">
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
@@ -1000,6 +1008,9 @@
       <c r="E2" s="1">
         <v>0</v>
       </c>
+      <c r="G2" s="1">
+        <v>100</v>
+      </c>
       <c r="H2" s="1">
         <v>0</v>
       </c>
@@ -1031,6 +1042,9 @@
       </c>
       <c r="E3" s="1">
         <v>0</v>
+      </c>
+      <c r="G3" s="1">
+        <v>100</v>
       </c>
       <c r="H3" s="1">
         <v>0</v>
@@ -1064,6 +1078,9 @@
       <c r="E4" s="1">
         <v>0</v>
       </c>
+      <c r="G4" s="1">
+        <v>100</v>
+      </c>
       <c r="H4" s="1">
         <v>0</v>
       </c>
@@ -1096,6 +1113,9 @@
       <c r="E5" s="1">
         <v>0</v>
       </c>
+      <c r="G5" s="1">
+        <v>100</v>
+      </c>
       <c r="H5" s="1">
         <v>0</v>
       </c>
@@ -1128,6 +1148,9 @@
       <c r="E6" s="1">
         <v>0</v>
       </c>
+      <c r="G6" s="1">
+        <v>100</v>
+      </c>
       <c r="H6" s="1">
         <v>0</v>
       </c>
@@ -1160,6 +1183,9 @@
       <c r="E7" s="1">
         <v>0</v>
       </c>
+      <c r="G7" s="1">
+        <v>100</v>
+      </c>
       <c r="H7" s="1">
         <v>0</v>
       </c>
@@ -1192,6 +1218,9 @@
       <c r="E8" s="1">
         <v>0</v>
       </c>
+      <c r="G8" s="1">
+        <v>100</v>
+      </c>
       <c r="H8" s="1">
         <v>0</v>
       </c>
@@ -1223,6 +1252,9 @@
       </c>
       <c r="E9" s="1">
         <v>0</v>
+      </c>
+      <c r="G9" s="1">
+        <v>100</v>
       </c>
       <c r="H9" s="1">
         <v>0</v>
@@ -2782,7 +2814,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04A18980-C5F5-904C-A09F-C403C009A87F}">
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
